--- a/statistics/R/PLI_normalized_roiHumanBody_Between-PLI_alpha/ART_output.xlsx
+++ b/statistics/R/PLI_normalized_roiHumanBody_Between-PLI_alpha/ART_output.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Raw_data" r:id="rId3" sheetId="1"/>
-    <sheet name="rmANOVA_ART_result" r:id="rId4" sheetId="2"/>
-    <sheet name="MEModel_result" r:id="rId5" sheetId="3"/>
+    <sheet name="Transformation_Check" r:id="rId4" sheetId="2"/>
+    <sheet name="rmANOVA_ART_result" r:id="rId5" sheetId="3"/>
+    <sheet name="MEModel_result" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>Subject</t>
   </si>
@@ -122,6 +123,15 @@
   </si>
   <si>
     <t>29</t>
+  </si>
+  <si>
+    <t>Transformation1</t>
+  </si>
+  <si>
+    <t>Transformation2</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Term</t>
@@ -1013,122 +1023,16 @@
       <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>148.9712643678168</v>
-      </c>
-      <c r="G2" t="n">
-        <v>353542.9770114942</v>
-      </c>
-      <c r="H2" t="n">
-        <v>148.9712643678168</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.05899134862694865</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.8084528002136229</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2467.896551724109</v>
-      </c>
-      <c r="G3" t="n">
-        <v>352378.1149425287</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1233.9482758620545</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.49024826257687093</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6135217900029026</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2165.5977011494488</v>
-      </c>
-      <c r="G4" t="n">
-        <v>351520.37931034475</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1082.7988505747244</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4312462320900787</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6505590023929324</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1147,27 +1051,166 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
         <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>148.9712643678168</v>
+      </c>
+      <c r="G2" t="n">
+        <v>353542.9770114942</v>
+      </c>
+      <c r="H2" t="n">
+        <v>148.9712643678168</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.05899134862694865</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8084528002136229</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2467.896551724109</v>
+      </c>
+      <c r="G3" t="n">
+        <v>352378.1149425287</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1233.9482758620545</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.49024826257687093</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6135217900029026</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2165.5977011494488</v>
+      </c>
+      <c r="G4" t="n">
+        <v>351520.37931034475</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1082.7988505747244</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4312462320900787</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6505590023929324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
       </c>
       <c r="C2" t="n">
         <v>0.05899134807541281</v>
@@ -1184,10 +1227,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
         <v>0.49024824353673957</v>
@@ -1204,10 +1247,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
         <v>0.43124623123543154</v>
